--- a/bars.xlsx
+++ b/bars.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,13 +392,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43363.11449837963</v>
+        <v>43363.56545954861</v>
       </c>
       <c r="C2">
-        <v>209.25</v>
+        <v>211.1306365924199</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -406,13 +406,195 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43363.11496075232</v>
+        <v>43363.56562590277</v>
       </c>
       <c r="C3">
-        <v>209.22151286438</v>
+        <v>211.14</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43363.56587423611</v>
+      </c>
+      <c r="C4">
+        <v>211.13961462114</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43363.56587423611</v>
+      </c>
+      <c r="C5">
+        <v>211.14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43363.56590851852</v>
+      </c>
+      <c r="C6">
+        <v>211.16573254068</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43363.56590851852</v>
+      </c>
+      <c r="C7">
+        <v>211.2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43363.56590851852</v>
+      </c>
+      <c r="C8">
+        <v>211.2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43363.56607971065</v>
+      </c>
+      <c r="C9">
+        <v>211.397924538</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43363.56607971065</v>
+      </c>
+      <c r="C10">
+        <v>211.68</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43363.56627290509</v>
+      </c>
+      <c r="C11">
+        <v>211.6579798387</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43363.56639905093</v>
+      </c>
+      <c r="C12">
+        <v>211.62427042426</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43363.56640371527</v>
+      </c>
+      <c r="C13">
+        <v>211.62590115172</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43363.56652685185</v>
+      </c>
+      <c r="C14">
+        <v>211.7024052933</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43363.56690737268</v>
+      </c>
+      <c r="C15">
+        <v>211.84164645788</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43363.56696763889</v>
+      </c>
+      <c r="C16">
+        <v>211.85</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
